--- a/medicine/Enfance/Iris_de_Moüy/Iris_de_Moüy.xlsx
+++ b/medicine/Enfance/Iris_de_Moüy/Iris_de_Moüy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Iris_de_Mo%C3%BCy</t>
+          <t>Iris_de_Moüy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris de Moüy est une artiste, auteure et dessinatrice née à Paris en 1975.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iris_de_Mo%C3%BCy</t>
+          <t>Iris_de_Moüy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris de Moüy est diplômée de l'école d'arts graphiques Penninghen.
-Elle est l'auteure de nombreux livres publiés à L'École des loisirs[1], aux éditions Hélium et chez Gallimard jeunesse.
-En 2015, elle est résidente de la Villa Kujoyama[2].
+Elle est l'auteure de nombreux livres publiés à L'École des loisirs, aux éditions Hélium et chez Gallimard jeunesse.
+En 2015, elle est résidente de la Villa Kujoyama.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Iris_de_Mo%C3%BCy</t>
+          <t>Iris_de_Moüy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livre d'artiste
-Some Girls Dance, éditions 0fr, 2016
-Horses Are Blue, Chose Commune, collection « Coup de Crayon », 2019[3],[4]
-Boucles étranges, folioscope, 2020
-Livres pour enfants
-Textes et dessins
-Honoré le nez au vent, éditions Naïve, 2007[5]
-Mon chien Pompon, L’École des loisirs, 2009[6]
+          <t>Livre d'artiste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Some Girls Dance, éditions 0fr, 2016
+Horses Are Blue, Chose Commune, collection « Coup de Crayon », 2019,
+Boucles étranges, folioscope, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iris_de_Moüy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_de_Mo%C3%BCy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Textes et dessins</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Honoré le nez au vent, éditions Naïve, 2007
+Mon chien Pompon, L’École des loisirs, 2009
 Mes couleurs, éditions Hélium, 2009
 La pomme de Pompon, L’École des loisirs, 2009
 Les vacances de Félix, Ella et les autres, éditions Hélium, 2010
@@ -567,48 +623,10 @@
 À la sieste, L’École des loisirs, 2013
 Petite sœur, L’École des loisirs, 2014
 Drôle de fille, L’École des loisirs, 2015
-Au bain les monstres !, L’École des loisirs, 2017[7]
+Au bain les monstres !, L’École des loisirs, 2017
 Tutti frutti, L’École des loisirs, 2018
-Kyoto, éditions Be-Poles, 2019[8]
-La maison d'Honoré, L’École des loisirs, 2019
-Dessins
-La vérité selon Ninon de Oscar Brenifier, éditions Autrement jeunesse, 2005
-Le petit garçon idéal de Zeruya Shalev, L’École des loisirs, 2009
-Mon petit Calder de Colombe Schneck, éditions Hélium, 2013
-La classe pipelette de Susie Morgenstern, L’École des loisirs, 2014[9]
-Ma sorcière et moi de Giovanna Calvino, éditions Gallimard jeunesse, 2014
-L'enfant invisible de Constance Verluca, L’École des loisirs, 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Iris_de_Mo%C3%BCy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Iris_de_Mo%C3%BCy</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2005 : Prix de la presse des jeunes au salon de Montreuil 2005[10] pour La vérité selon Ninon
-2021 : Premio Nazionale Nati per Leggere[11] du Salon international du livre (Turin) pour  À la sieste !</t>
+Kyoto, éditions Be-Poles, 2019
+La maison d'Honoré, L’École des loisirs, 2019</t>
         </is>
       </c>
     </row>
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Iris_de_Mo%C3%BCy</t>
+          <t>Iris_de_Moüy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,14 +651,94 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dessins</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La vérité selon Ninon de Oscar Brenifier, éditions Autrement jeunesse, 2005
+Le petit garçon idéal de Zeruya Shalev, L’École des loisirs, 2009
+Mon petit Calder de Colombe Schneck, éditions Hélium, 2013
+La classe pipelette de Susie Morgenstern, L’École des loisirs, 2014
+Ma sorcière et moi de Giovanna Calvino, éditions Gallimard jeunesse, 2014
+L'enfant invisible de Constance Verluca, L’École des loisirs, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iris_de_Moüy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_de_Mo%C3%BCy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2005 : Prix de la presse des jeunes au salon de Montreuil 2005 pour La vérité selon Ninon
+2021 : Premio Nazionale Nati per Leggere du Salon international du livre (Turin) pour  À la sieste !</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iris_de_Moüy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_de_Mo%C3%BCy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Expositions (selection)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ghost tales at the Museum, Kyoto International Manga Museum, Kyoto, 2015[12]
-Petite conne, galerie 0fr, Paris, 2016[13]
-Boucles étranges, galerie Mayaro, Paris, 2020[14]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ghost tales at the Museum, Kyoto International Manga Museum, Kyoto, 2015
+Petite conne, galerie 0fr, Paris, 2016
+Boucles étranges, galerie Mayaro, Paris, 2020</t>
         </is>
       </c>
     </row>
